--- a/result.xlsx
+++ b/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\GitHub\Transfer_Learning_HAR\Create-Synthetic-IMU-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B325E3EB-744D-47C7-91B1-1B6E810919EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7872743-7609-4315-9555-0A7F76DB2A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" activeTab="5" xr2:uid="{E843CE0E-B38E-4A93-8E40-122F80018CB3}"/>
   </bookViews>
@@ -21,6 +21,7 @@
     <sheet name="NTU" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>

--- a/result.xlsx
+++ b/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\GitHub\Transfer_Learning_HAR\Create-Synthetic-IMU-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7872743-7609-4315-9555-0A7F76DB2A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD0DD212-0433-4DBD-B1AB-2CE3070C972E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" activeTab="5" xr2:uid="{E843CE0E-B38E-4A93-8E40-122F80018CB3}"/>
   </bookViews>
@@ -21,7 +21,6 @@
     <sheet name="NTU" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1960" uniqueCount="978">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1961" uniqueCount="978">
   <si>
     <t>Opportunity</t>
   </si>
@@ -13255,8 +13254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39DFFE51-4F02-44E2-84B8-525D2EDA0840}">
   <dimension ref="A1:AH45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -13607,8 +13606,8 @@
       <c r="D11">
         <v>60</v>
       </c>
-      <c r="F11">
-        <v>56.38</v>
+      <c r="F11" t="s">
+        <v>155</v>
       </c>
       <c r="G11" s="45" t="s">
         <v>855</v>
